--- a/data/liste-equipe.xlsx
+++ b/data/liste-equipe.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremylavalade/Downloads/Site Web V2.1/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B816ED34-3EEC-484A-BC8B-C5AB073E3943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572A22A0-9552-8B40-BA16-1E700E11CD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17760" xr2:uid="{786A410D-58C9-CF4E-A296-84671034DD88}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{786A410D-58C9-CF4E-A296-84671034DD88}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="225">
   <si>
     <t>Prénom</t>
   </si>
@@ -248,9 +248,6 @@
     <t>Martz</t>
   </si>
   <si>
-    <t>Chef Opérateur Son &amp; Mixeur</t>
-  </si>
-  <si>
     <t>Merat</t>
   </si>
   <si>
@@ -500,9 +497,6 @@
     <t>p2-acting</t>
   </si>
   <si>
-    <t>realisateurs;scenaristes;p2-prod;p2-acting;p2-artistique;p2-technique;p2-postprod;p3-prod;p3-acting;p3-artistique;p3-technique;p3-postprod;support</t>
-  </si>
-  <si>
     <t>Lucile</t>
   </si>
   <si>
@@ -548,21 +542,6 @@
     <t>nicolas.quintin@harmoniedudoutefilm.fr</t>
   </si>
   <si>
-    <t>Manon</t>
-  </si>
-  <si>
-    <t>Lauvergeat</t>
-  </si>
-  <si>
-    <t>2ème Assistant Réalisateur</t>
-  </si>
-  <si>
-    <t>manon_lvg01</t>
-  </si>
-  <si>
-    <t>manon.lauvergeat@harmoniedudoutefilm.fr</t>
-  </si>
-  <si>
     <t>Valentin</t>
   </si>
   <si>
@@ -648,6 +627,90 @@
   </si>
   <si>
     <t>Renfort Prod &amp; Mise-en-scène</t>
+  </si>
+  <si>
+    <t>p2-postprod</t>
+  </si>
+  <si>
+    <t>Mixeur</t>
+  </si>
+  <si>
+    <t>Chef Opérateur Son</t>
+  </si>
+  <si>
+    <t>Régisseur Adjoint</t>
+  </si>
+  <si>
+    <t>Mondésir</t>
+  </si>
+  <si>
+    <t>lucilemondesir</t>
+  </si>
+  <si>
+    <t>lucile.mondesir@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>realisateurs;scenaristes;p2-prod;p2-acting;p2-artistique;p2-technique;p2-postprod;p3-prod;p3-acting;p3-artistique;p3-technique;p3-postprod;support;remerciements</t>
+  </si>
+  <si>
+    <t>remerciements</t>
+  </si>
+  <si>
+    <t>Almudena</t>
+  </si>
+  <si>
+    <t>Brymans</t>
+  </si>
+  <si>
+    <t>Conseillère Décoration</t>
+  </si>
+  <si>
+    <t>Sophie</t>
+  </si>
+  <si>
+    <t>Marguerite</t>
+  </si>
+  <si>
+    <t>Chargée de Figuration</t>
+  </si>
+  <si>
+    <t>Lucy</t>
+  </si>
+  <si>
+    <t>Bateau</t>
+  </si>
+  <si>
+    <t>almudenabrymans</t>
+  </si>
+  <si>
+    <t>marguerite_sophie</t>
+  </si>
+  <si>
+    <t>lucy.bto</t>
+  </si>
+  <si>
+    <t>Barnabé</t>
+  </si>
+  <si>
+    <t>Lemeille</t>
+  </si>
+  <si>
+    <t>Pilote de Drone</t>
+  </si>
+  <si>
+    <t>Forgeneuf</t>
+  </si>
+  <si>
+    <t>Régisseur</t>
+  </si>
+  <si>
+    <t>bybarnab</t>
+  </si>
+  <si>
+    <t>mathias.fgf</t>
+  </si>
+  <si>
+    <t>contact@harmoniedudoutefilm.fr</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1089,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1D4DD-F58E-894F-94D4-E9D82FF3EB6B}">
-  <dimension ref="B2:I42"/>
+  <dimension ref="B2:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1064,7 +1127,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>154</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -1132,59 +1195,59 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>162</v>
+        <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>213</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>164</v>
+        <v>216</v>
       </c>
       <c r="G6" t="s">
-        <v>165</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="D7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>174</v>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8" t="s">
+        <v>165</v>
+      </c>
+      <c r="F8" t="s">
+        <v>166</v>
+      </c>
+      <c r="G8" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -1192,19 +1255,19 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="E9" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
       <c r="G9" t="s">
-        <v>179</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -1252,19 +1315,19 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
+        <v>178</v>
+      </c>
+      <c r="D12" t="s">
+        <v>179</v>
+      </c>
+      <c r="E12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F12" t="s">
         <v>180</v>
       </c>
-      <c r="D12" t="s">
+      <c r="G12" t="s">
         <v>181</v>
-      </c>
-      <c r="E12" t="s">
-        <v>182</v>
-      </c>
-      <c r="F12" t="s">
-        <v>183</v>
-      </c>
-      <c r="G12" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -1272,19 +1335,19 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>175</v>
       </c>
       <c r="F13" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="G13" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
@@ -1312,19 +1375,19 @@
         <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D15" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="E15" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F15" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="G15" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -1392,19 +1455,19 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D19" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="E19" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="G19" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
@@ -1458,13 +1521,13 @@
         <v>69</v>
       </c>
       <c r="E22" t="s">
-        <v>70</v>
+        <v>199</v>
       </c>
       <c r="F22" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" t="s">
         <v>79</v>
-      </c>
-      <c r="G22" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -1475,16 +1538,16 @@
         <v>68</v>
       </c>
       <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" t="s">
         <v>71</v>
       </c>
-      <c r="E23" t="s">
-        <v>72</v>
-      </c>
       <c r="F23" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" t="s">
         <v>81</v>
-      </c>
-      <c r="G23" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
@@ -1492,19 +1555,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
         <v>73</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>74</v>
       </c>
-      <c r="E24" t="s">
-        <v>75</v>
-      </c>
       <c r="F24" t="s">
+        <v>82</v>
+      </c>
+      <c r="G24" t="s">
         <v>83</v>
-      </c>
-      <c r="G24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -1512,19 +1575,19 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
+        <v>75</v>
+      </c>
+      <c r="D25" t="s">
         <v>76</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>77</v>
       </c>
-      <c r="E25" t="s">
-        <v>78</v>
-      </c>
       <c r="F25" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" t="s">
         <v>85</v>
-      </c>
-      <c r="G25" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -1532,19 +1595,19 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
+        <v>86</v>
+      </c>
+      <c r="D26" t="s">
         <v>87</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>88</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>89</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>90</v>
-      </c>
-      <c r="G26" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
@@ -1552,19 +1615,19 @@
         <v>29</v>
       </c>
       <c r="C27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D27" t="s">
         <v>92</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>93</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>94</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>95</v>
-      </c>
-      <c r="G27" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -1572,19 +1635,19 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D28" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F28" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="G28" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -1592,19 +1655,19 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
+        <v>96</v>
+      </c>
+      <c r="D29" t="s">
         <v>97</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>98</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>99</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>100</v>
-      </c>
-      <c r="G29" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
@@ -1612,59 +1675,59 @@
         <v>27</v>
       </c>
       <c r="C30" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" t="s">
         <v>102</v>
       </c>
-      <c r="D30" t="s">
-        <v>103</v>
-      </c>
       <c r="E30" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
       <c r="G30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" t="s">
         <v>153</v>
       </c>
-      <c r="C31" t="s">
-        <v>63</v>
-      </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>201</v>
       </c>
       <c r="E31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F31" t="s">
-        <v>66</v>
+        <v>202</v>
       </c>
       <c r="G31" t="s">
-        <v>67</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="C32" t="s">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="D32" t="s">
-        <v>106</v>
+        <v>64</v>
       </c>
       <c r="E32" t="s">
-        <v>107</v>
+        <v>154</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>66</v>
       </c>
       <c r="G32" t="s">
-        <v>134</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
@@ -1672,19 +1735,19 @@
         <v>30</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>109</v>
+        <v>4</v>
       </c>
       <c r="E33" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="F33" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="G33" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
@@ -1692,19 +1755,19 @@
         <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="E34" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G34" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
@@ -1712,19 +1775,19 @@
         <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E35" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="F35" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="G35" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
@@ -1732,19 +1795,19 @@
         <v>30</v>
       </c>
       <c r="C36" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="E36" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
@@ -1752,19 +1815,19 @@
         <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="E37" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G37" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
@@ -1772,19 +1835,19 @@
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E38" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="F38" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G38" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
@@ -1792,19 +1855,19 @@
         <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="E39" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G39" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
@@ -1812,19 +1875,19 @@
         <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E40" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G40" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
@@ -1832,19 +1895,19 @@
         <v>30</v>
       </c>
       <c r="C41" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D41" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E41" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="F41" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
@@ -1852,19 +1915,139 @@
         <v>30</v>
       </c>
       <c r="C42" t="s">
+        <v>129</v>
+      </c>
+      <c r="D42" t="s">
+        <v>130</v>
+      </c>
+      <c r="E42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F42" t="s">
+        <v>150</v>
+      </c>
+      <c r="G42" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" t="s">
+        <v>156</v>
+      </c>
+      <c r="E43" t="s">
         <v>157</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F43" t="s">
         <v>158</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G43" t="s">
         <v>159</v>
       </c>
-      <c r="F42" t="s">
-        <v>160</v>
-      </c>
-      <c r="G42" t="s">
-        <v>161</v>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" t="s">
+        <v>198</v>
+      </c>
+      <c r="F44" t="s">
+        <v>78</v>
+      </c>
+      <c r="G44" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" t="s">
+        <v>206</v>
+      </c>
+      <c r="D45" t="s">
+        <v>207</v>
+      </c>
+      <c r="E45" t="s">
+        <v>208</v>
+      </c>
+      <c r="F45" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>205</v>
+      </c>
+      <c r="C46" t="s">
+        <v>209</v>
+      </c>
+      <c r="D46" t="s">
+        <v>210</v>
+      </c>
+      <c r="E46" t="s">
+        <v>211</v>
+      </c>
+      <c r="F46" t="s">
+        <v>215</v>
+      </c>
+      <c r="G46" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" t="s">
+        <v>217</v>
+      </c>
+      <c r="D47" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" t="s">
+        <v>219</v>
+      </c>
+      <c r="F47" t="s">
+        <v>222</v>
+      </c>
+      <c r="G47" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>205</v>
+      </c>
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="D48" t="s">
+        <v>220</v>
+      </c>
+      <c r="E48" t="s">
+        <v>221</v>
+      </c>
+      <c r="F48" t="s">
+        <v>223</v>
+      </c>
+      <c r="G48" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>

--- a/data/liste-equipe.xlsx
+++ b/data/liste-equipe.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremylavalade/Downloads/Site Web V2.1/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremylavalade/Library/CloudStorage/GoogleDrive-b00730264@essec.edu/Drive partagés/L'Harmonie du Doute/3. Services Supports/3. Com' Externe (hors financement)/2. Site Web/2. Site Web/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{572A22A0-9552-8B40-BA16-1E700E11CD68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B1B887-BE0C-534C-9BB8-24128DA5F04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17740" xr2:uid="{786A410D-58C9-CF4E-A296-84671034DD88}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="303">
   <si>
     <t>Prénom</t>
   </si>
@@ -224,9 +224,6 @@
     <t>Chef Constructeur</t>
   </si>
   <si>
-    <t>serge.freitas@harmoniedudoutefilm.fr</t>
-  </si>
-  <si>
     <t>Laurianne</t>
   </si>
   <si>
@@ -302,30 +299,12 @@
     <t>Leroux</t>
   </si>
   <si>
-    <t>Styliste &amp; Modéliste Tenue Edgar</t>
-  </si>
-  <si>
     <t>maelle.leroux.02</t>
   </si>
   <si>
     <t>maelle.leroux@harmoniedudoutefilm.fr</t>
   </si>
   <si>
-    <t>Luca</t>
-  </si>
-  <si>
-    <t>Di Noto</t>
-  </si>
-  <si>
-    <t>Chef Maquilleur</t>
-  </si>
-  <si>
-    <t>lucadi_noto</t>
-  </si>
-  <si>
-    <t>luca.di-noto@harmoniedudoutefilm.fr</t>
-  </si>
-  <si>
     <t>Nathanaël</t>
   </si>
   <si>
@@ -533,45 +512,9 @@
     <t>Quintin</t>
   </si>
   <si>
-    <t>1ère Assistante Réalisateur</t>
-  </si>
-  <si>
-    <t>nic.qtn</t>
-  </si>
-  <si>
-    <t>nicolas.quintin@harmoniedudoutefilm.fr</t>
-  </si>
-  <si>
-    <t>Valentin</t>
-  </si>
-  <si>
-    <t>Piquemal</t>
-  </si>
-  <si>
-    <t>3ème Assistant Réalisateur</t>
-  </si>
-  <si>
-    <t>valentin.piquemal</t>
-  </si>
-  <si>
-    <t>valentin.piquemal@harmoniedudoutefilm.fr</t>
-  </si>
-  <si>
-    <t>Antoine</t>
-  </si>
-  <si>
-    <t>Abdul-Jalil</t>
-  </si>
-  <si>
     <t>Auxiliaire de Régie</t>
   </si>
   <si>
-    <t>antoine_abduljalil</t>
-  </si>
-  <si>
-    <t>antoine.abdul-jalil@harmoniedudoutefilm.fr</t>
-  </si>
-  <si>
     <t>Cece</t>
   </si>
   <si>
@@ -626,9 +569,6 @@
     <t>emile.balcaen@harmoniedudoutefilm.fr</t>
   </si>
   <si>
-    <t>Renfort Prod &amp; Mise-en-scène</t>
-  </si>
-  <si>
     <t>p2-postprod</t>
   </si>
   <si>
@@ -711,6 +651,300 @@
   </si>
   <si>
     <t>contact@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Directrice de Relation Publique</t>
+  </si>
+  <si>
+    <t>1er Assistant Mise-en-scène</t>
+  </si>
+  <si>
+    <t>Mathis</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>2ème Assistant Mise-en-scène</t>
+  </si>
+  <si>
+    <t>mathisrobinn</t>
+  </si>
+  <si>
+    <t>mathis.robin@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Anton</t>
+  </si>
+  <si>
+    <t>Mulot Uger</t>
+  </si>
+  <si>
+    <t>3ème Assistant Mise-en-scène</t>
+  </si>
+  <si>
+    <t>anton_mulot</t>
+  </si>
+  <si>
+    <t>anton.mulot-uger@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
+  </si>
+  <si>
+    <t>D'Agostino</t>
+  </si>
+  <si>
+    <t>chaa__chooo</t>
+  </si>
+  <si>
+    <t>charlotte.d'agostino@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Inès</t>
+  </si>
+  <si>
+    <t>Morillon</t>
+  </si>
+  <si>
+    <t>dermindspi</t>
+  </si>
+  <si>
+    <t>ines.morillon@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Frida</t>
+  </si>
+  <si>
+    <t>Cota</t>
+  </si>
+  <si>
+    <t>supernova_tales</t>
+  </si>
+  <si>
+    <t>frida.cota@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Aloîs</t>
+  </si>
+  <si>
+    <t>Melon</t>
+  </si>
+  <si>
+    <t>Chef Éléctricien</t>
+  </si>
+  <si>
+    <t>aloys_mln</t>
+  </si>
+  <si>
+    <t>Swann</t>
+  </si>
+  <si>
+    <t>Assayag</t>
+  </si>
+  <si>
+    <t>Éléctricien</t>
+  </si>
+  <si>
+    <t>swann.assayagkao</t>
+  </si>
+  <si>
+    <t>swann.assayag@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Nikola</t>
+  </si>
+  <si>
+    <t>Stevanovic</t>
+  </si>
+  <si>
+    <t>nikola.stevanovic@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>de Potter</t>
+  </si>
+  <si>
+    <t>Chef Machiniste</t>
+  </si>
+  <si>
+    <t>rob_dptr</t>
+  </si>
+  <si>
+    <t>robin.de-potter@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Élodie</t>
+  </si>
+  <si>
+    <t>Besevic</t>
+  </si>
+  <si>
+    <t>Assistant Décoration</t>
+  </si>
+  <si>
+    <t>elodiebsvc</t>
+  </si>
+  <si>
+    <t>elodie.besevic@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Williard-Vincent</t>
+  </si>
+  <si>
+    <t>mathis_willvin</t>
+  </si>
+  <si>
+    <t>mathis.williard-vincent@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Léa</t>
+  </si>
+  <si>
+    <t>Fourquin</t>
+  </si>
+  <si>
+    <t>Assistante Décoration</t>
+  </si>
+  <si>
+    <t>l34k1_</t>
+  </si>
+  <si>
+    <t>lea.fourquin@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Timothé</t>
+  </si>
+  <si>
+    <t>Bertrand</t>
+  </si>
+  <si>
+    <t>team_ot</t>
+  </si>
+  <si>
+    <t>timothe.bertrand@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Idris</t>
+  </si>
+  <si>
+    <t>Cammas</t>
+  </si>
+  <si>
+    <t>electridris</t>
+  </si>
+  <si>
+    <t>idris.cammas@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Charlyne</t>
+  </si>
+  <si>
+    <t>Primus</t>
+  </si>
+  <si>
+    <t>Infographiste</t>
+  </si>
+  <si>
+    <t>charlyne__p</t>
+  </si>
+  <si>
+    <t>charlyne.primus@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Artus</t>
+  </si>
+  <si>
+    <t>Gauvin</t>
+  </si>
+  <si>
+    <t>Constructeur</t>
+  </si>
+  <si>
+    <t>artusgauv1</t>
+  </si>
+  <si>
+    <t>artus.gauvin@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Alice</t>
+  </si>
+  <si>
+    <t>Lemercier</t>
+  </si>
+  <si>
+    <t>alice.lemercier@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Ambre</t>
+  </si>
+  <si>
+    <t>Masseboeuf</t>
+  </si>
+  <si>
+    <t>Cheffe Maquilleuse</t>
+  </si>
+  <si>
+    <t>ambremmakeup</t>
+  </si>
+  <si>
+    <t>ambre.masseboeuf@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Axelle</t>
+  </si>
+  <si>
+    <t>Bournet-Brebion</t>
+  </si>
+  <si>
+    <t>Maquilleuse</t>
+  </si>
+  <si>
+    <t>axellebournet</t>
+  </si>
+  <si>
+    <t>axelle.bournet-brebion@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Cortade</t>
+  </si>
+  <si>
+    <t>Photographe de Plateau</t>
+  </si>
+  <si>
+    <t>juliette.cortade@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Pierlou</t>
+  </si>
+  <si>
+    <t>Boudet</t>
+  </si>
+  <si>
+    <t>Artiste VFX</t>
+  </si>
+  <si>
+    <t>pierlou.boudet@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>harmoniedudoutefilm</t>
+  </si>
+  <si>
+    <t>2ème Assistante Caméra</t>
+  </si>
+  <si>
+    <t>jean_serbe</t>
+  </si>
+  <si>
+    <t>alois.melon@harmoniedudoutefilm.fr</t>
+  </si>
+  <si>
+    <t>Styliste &amp; Modéliste</t>
+  </si>
+  <si>
+    <t>alice_lmrcr</t>
+  </si>
+  <si>
+    <t>cortadejuliette</t>
   </si>
 </sst>
 </file>
@@ -752,14 +986,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1089,10 +1342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EF1D4DD-F58E-894F-94D4-E9D82FF3EB6B}">
-  <dimension ref="B2:I48"/>
+  <dimension ref="B2:I66"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E62" sqref="E62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1100,10 +1353,10 @@
     <col min="1" max="1" width="4.33203125" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="37.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="41.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1127,7 +1380,7 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.2">
@@ -1195,19 +1448,19 @@
         <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>213</v>
+        <v>193</v>
       </c>
       <c r="E6" t="s">
         <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.2">
@@ -1215,19 +1468,19 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
         <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="G7" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.2">
@@ -1238,16 +1491,16 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="F8" t="s">
-        <v>166</v>
+        <v>296</v>
       </c>
       <c r="G8" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.2">
@@ -1255,19 +1508,19 @@
         <v>28</v>
       </c>
       <c r="C9" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
       <c r="F9" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="G9" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.2">
@@ -1275,39 +1528,39 @@
         <v>28</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>215</v>
       </c>
       <c r="G10" t="s">
-        <v>38</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.2">
@@ -1315,19 +1568,19 @@
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>178</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
-        <v>180</v>
+        <v>39</v>
       </c>
       <c r="G12" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.2">
@@ -1335,59 +1588,59 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="D13" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="E13" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="F13" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="G13" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>217</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>218</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>158</v>
       </c>
       <c r="F14" t="s">
-        <v>44</v>
+        <v>219</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>220</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C15" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="D15" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>158</v>
       </c>
       <c r="F15" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="G15" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.2">
@@ -1395,19 +1648,19 @@
         <v>29</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="G16" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
@@ -1415,99 +1668,99 @@
         <v>29</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>166</v>
       </c>
       <c r="G17" t="s">
-        <v>57</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>225</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>226</v>
       </c>
       <c r="E18" t="s">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="F18" t="s">
-        <v>58</v>
+        <v>227</v>
       </c>
       <c r="G18" t="s">
-        <v>59</v>
+        <v>228</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s">
-        <v>153</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>187</v>
+        <v>230</v>
       </c>
       <c r="E19" t="s">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="F19" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
+        <v>299</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>60</v>
+        <v>233</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>234</v>
       </c>
       <c r="E20" t="s">
-        <v>61</v>
+        <v>235</v>
       </c>
       <c r="F20" t="s">
-        <v>7</v>
+        <v>236</v>
       </c>
       <c r="G20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="17" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>238</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>239</v>
       </c>
       <c r="E21" t="s">
-        <v>65</v>
-      </c>
-      <c r="F21" t="s">
-        <v>66</v>
+        <v>235</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>298</v>
       </c>
       <c r="G21" t="s">
-        <v>67</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.2">
@@ -1515,19 +1768,19 @@
         <v>29</v>
       </c>
       <c r="C22" t="s">
-        <v>68</v>
+        <v>208</v>
       </c>
       <c r="D22" t="s">
-        <v>69</v>
+        <v>241</v>
       </c>
       <c r="E22" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="F22" t="s">
-        <v>78</v>
+        <v>243</v>
       </c>
       <c r="G22" t="s">
-        <v>79</v>
+        <v>244</v>
       </c>
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.2">
@@ -1535,39 +1788,39 @@
         <v>29</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="D23" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="F23" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="G23" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="G24" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.2">
@@ -1575,19 +1828,19 @@
         <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="E25" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F25" t="s">
-        <v>84</v>
+        <v>58</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.2">
@@ -1595,39 +1848,39 @@
         <v>28</v>
       </c>
       <c r="C26" t="s">
-        <v>86</v>
+        <v>146</v>
       </c>
       <c r="D26" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="E26" t="s">
-        <v>88</v>
+        <v>169</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>170</v>
       </c>
       <c r="G26" t="s">
-        <v>90</v>
+        <v>171</v>
       </c>
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>91</v>
+        <v>60</v>
       </c>
       <c r="D27" t="s">
-        <v>92</v>
+        <v>6</v>
       </c>
       <c r="E27" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="F27" t="s">
-        <v>94</v>
+        <v>7</v>
       </c>
       <c r="G27" t="s">
-        <v>95</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.2">
@@ -1635,19 +1888,19 @@
         <v>28</v>
       </c>
       <c r="C28" t="s">
-        <v>191</v>
+        <v>245</v>
       </c>
       <c r="D28" t="s">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="E28" t="s">
-        <v>193</v>
+        <v>247</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>248</v>
       </c>
       <c r="G28" t="s">
-        <v>195</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.2">
@@ -1655,399 +1908,759 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>96</v>
+        <v>207</v>
       </c>
       <c r="D29" t="s">
-        <v>97</v>
+        <v>250</v>
       </c>
       <c r="E29" t="s">
-        <v>98</v>
+        <v>247</v>
       </c>
       <c r="F29" t="s">
-        <v>99</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>100</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>253</v>
       </c>
       <c r="D30" t="s">
-        <v>102</v>
+        <v>254</v>
       </c>
       <c r="E30" t="s">
-        <v>196</v>
+        <v>255</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>256</v>
       </c>
       <c r="G30" t="s">
-        <v>103</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>153</v>
+        <v>258</v>
       </c>
       <c r="D31" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="E31" t="s">
-        <v>154</v>
+        <v>247</v>
       </c>
       <c r="F31" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="G31" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="E32" t="s">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="F32" t="s">
-        <v>66</v>
+        <v>264</v>
       </c>
       <c r="G32" t="s">
-        <v>67</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B33" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>266</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>267</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>268</v>
       </c>
       <c r="F33" t="s">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c r="G33" t="s">
-        <v>141</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C34" t="s">
-        <v>104</v>
+        <v>271</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>272</v>
       </c>
       <c r="E34" t="s">
-        <v>106</v>
+        <v>273</v>
       </c>
       <c r="F34" t="s">
-        <v>132</v>
+        <v>274</v>
       </c>
       <c r="G34" t="s">
-        <v>133</v>
+        <v>275</v>
       </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B35" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="D35" t="s">
-        <v>108</v>
+        <v>63</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="F35" t="s">
-        <v>134</v>
+        <v>65</v>
       </c>
       <c r="G35" t="s">
-        <v>135</v>
+        <v>66</v>
       </c>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B36" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="D36" t="s">
-        <v>111</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="G36" t="s">
-        <v>137</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>115</v>
+        <v>70</v>
       </c>
       <c r="F37" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="G37" t="s">
-        <v>139</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C38" t="s">
-        <v>118</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>119</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>120</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
-        <v>142</v>
+        <v>81</v>
       </c>
       <c r="G38" t="s">
-        <v>143</v>
+        <v>82</v>
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>75</v>
       </c>
       <c r="E39" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="F39" t="s">
-        <v>144</v>
+        <v>83</v>
       </c>
       <c r="G39" t="s">
-        <v>145</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B40" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C40" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>86</v>
       </c>
       <c r="E40" t="s">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="F40" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="G40" t="s">
-        <v>147</v>
+        <v>88</v>
       </c>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B41" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C41" t="s">
-        <v>127</v>
+        <v>276</v>
       </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>277</v>
       </c>
       <c r="E41" t="s">
-        <v>126</v>
+        <v>300</v>
       </c>
       <c r="F41" t="s">
-        <v>148</v>
+        <v>301</v>
       </c>
       <c r="G41" t="s">
-        <v>149</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>129</v>
+        <v>279</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>280</v>
       </c>
       <c r="E42" t="s">
-        <v>131</v>
+        <v>281</v>
       </c>
       <c r="F42" t="s">
-        <v>150</v>
+        <v>282</v>
       </c>
       <c r="G42" t="s">
-        <v>151</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B43" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C43" t="s">
-        <v>155</v>
+        <v>284</v>
       </c>
       <c r="D43" t="s">
-        <v>156</v>
+        <v>285</v>
       </c>
       <c r="E43" t="s">
-        <v>157</v>
+        <v>286</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>287</v>
       </c>
       <c r="G43" t="s">
-        <v>159</v>
+        <v>288</v>
       </c>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B44" t="s">
-        <v>197</v>
+        <v>28</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>172</v>
       </c>
       <c r="D44" t="s">
-        <v>69</v>
+        <v>173</v>
       </c>
       <c r="E44" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="F44" t="s">
-        <v>78</v>
+        <v>175</v>
       </c>
       <c r="G44" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B45" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="C45" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>207</v>
+        <v>289</v>
       </c>
       <c r="E45" t="s">
-        <v>208</v>
+        <v>290</v>
       </c>
       <c r="F45" t="s">
-        <v>214</v>
+        <v>302</v>
       </c>
       <c r="G45" t="s">
-        <v>224</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B46" t="s">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="C46" t="s">
-        <v>209</v>
+        <v>89</v>
       </c>
       <c r="D46" t="s">
-        <v>210</v>
+        <v>90</v>
       </c>
       <c r="E46" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="F46" t="s">
-        <v>215</v>
+        <v>92</v>
       </c>
       <c r="G46" t="s">
-        <v>224</v>
+        <v>93</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B47" t="s">
-        <v>205</v>
+        <v>145</v>
       </c>
       <c r="C47" t="s">
-        <v>217</v>
+        <v>146</v>
       </c>
       <c r="D47" t="s">
-        <v>218</v>
+        <v>181</v>
       </c>
       <c r="E47" t="s">
-        <v>219</v>
+        <v>147</v>
       </c>
       <c r="F47" t="s">
-        <v>222</v>
+        <v>182</v>
       </c>
       <c r="G47" t="s">
-        <v>224</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B48" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" t="s">
+        <v>62</v>
+      </c>
+      <c r="D48" t="s">
+        <v>63</v>
+      </c>
+      <c r="E48" t="s">
+        <v>147</v>
+      </c>
+      <c r="F48" t="s">
+        <v>65</v>
+      </c>
+      <c r="G48" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>110</v>
+      </c>
+      <c r="F49" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>30</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+      <c r="D50" t="s">
+        <v>98</v>
+      </c>
+      <c r="E50" t="s">
+        <v>99</v>
+      </c>
+      <c r="F50" t="s">
+        <v>125</v>
+      </c>
+      <c r="G50" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C51" t="s">
+        <v>94</v>
+      </c>
+      <c r="D51" t="s">
+        <v>95</v>
+      </c>
+      <c r="E51" t="s">
         <v>205</v>
       </c>
-      <c r="C48" t="s">
-        <v>182</v>
-      </c>
-      <c r="D48" t="s">
-        <v>220</v>
-      </c>
-      <c r="E48" t="s">
-        <v>221</v>
-      </c>
-      <c r="F48" t="s">
-        <v>223</v>
-      </c>
-      <c r="G48" t="s">
-        <v>224</v>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>30</v>
+      </c>
+      <c r="C52" t="s">
+        <v>100</v>
+      </c>
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>30</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>104</v>
+      </c>
+      <c r="E53" t="s">
+        <v>105</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>30</v>
+      </c>
+      <c r="C54" t="s">
+        <v>106</v>
+      </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" t="s">
+        <v>108</v>
+      </c>
+      <c r="F54" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>30</v>
+      </c>
+      <c r="C55" t="s">
+        <v>111</v>
+      </c>
+      <c r="D55" t="s">
+        <v>112</v>
+      </c>
+      <c r="E55" t="s">
+        <v>113</v>
+      </c>
+      <c r="F55" t="s">
+        <v>135</v>
+      </c>
+      <c r="G55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>30</v>
+      </c>
+      <c r="C56" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" t="s">
+        <v>115</v>
+      </c>
+      <c r="E56" t="s">
+        <v>116</v>
+      </c>
+      <c r="F56" t="s">
+        <v>137</v>
+      </c>
+      <c r="G56" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>30</v>
+      </c>
+      <c r="C57" t="s">
+        <v>117</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+      <c r="E57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57" t="s">
+        <v>139</v>
+      </c>
+      <c r="G57" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C58" t="s">
+        <v>120</v>
+      </c>
+      <c r="D58" t="s">
+        <v>121</v>
+      </c>
+      <c r="E58" t="s">
+        <v>119</v>
+      </c>
+      <c r="F58" t="s">
+        <v>141</v>
+      </c>
+      <c r="G58" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>30</v>
+      </c>
+      <c r="C59" t="s">
+        <v>122</v>
+      </c>
+      <c r="D59" t="s">
+        <v>123</v>
+      </c>
+      <c r="E59" t="s">
+        <v>124</v>
+      </c>
+      <c r="F59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G59" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>148</v>
+      </c>
+      <c r="D60" t="s">
+        <v>149</v>
+      </c>
+      <c r="E60" t="s">
+        <v>150</v>
+      </c>
+      <c r="F60" t="s">
+        <v>151</v>
+      </c>
+      <c r="G60" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>177</v>
+      </c>
+      <c r="C61" t="s">
+        <v>67</v>
+      </c>
+      <c r="D61" t="s">
+        <v>68</v>
+      </c>
+      <c r="E61" t="s">
+        <v>178</v>
+      </c>
+      <c r="F61" t="s">
+        <v>77</v>
+      </c>
+      <c r="G61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>177</v>
+      </c>
+      <c r="C62" t="s">
+        <v>292</v>
+      </c>
+      <c r="D62" t="s">
+        <v>293</v>
+      </c>
+      <c r="E62" t="s">
+        <v>294</v>
+      </c>
+      <c r="F62" t="s">
+        <v>296</v>
+      </c>
+      <c r="G62" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>185</v>
+      </c>
+      <c r="C63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" t="s">
+        <v>187</v>
+      </c>
+      <c r="E63" t="s">
+        <v>188</v>
+      </c>
+      <c r="F63" t="s">
+        <v>194</v>
+      </c>
+      <c r="G63" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>185</v>
+      </c>
+      <c r="C64" t="s">
+        <v>189</v>
+      </c>
+      <c r="D64" t="s">
+        <v>190</v>
+      </c>
+      <c r="E64" t="s">
+        <v>191</v>
+      </c>
+      <c r="F64" t="s">
+        <v>195</v>
+      </c>
+      <c r="G64" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" t="s">
+        <v>197</v>
+      </c>
+      <c r="D65" t="s">
+        <v>198</v>
+      </c>
+      <c r="E65" t="s">
+        <v>199</v>
+      </c>
+      <c r="F65" t="s">
+        <v>202</v>
+      </c>
+      <c r="G65" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>185</v>
+      </c>
+      <c r="C66" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" t="s">
+        <v>201</v>
+      </c>
+      <c r="F66" t="s">
+        <v>203</v>
+      </c>
+      <c r="G66" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
